--- a/04-10-2019-TOTAL.xlsx
+++ b/04-10-2019-TOTAL.xlsx
@@ -110,14 +110,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -135,24 +137,43 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,12 +210,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,7 +223,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,6 +244,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF2A6099"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -226,10 +315,10 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.53"/>
@@ -248,134 +337,134 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>178</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -515,11 +604,11 @@
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <f aca="false">SUM(B2:B25)</f>
         <v>3871</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="5" t="n">
         <f aca="false">SUM(C2:C25)</f>
         <v>96</v>
       </c>
